--- a/1차 프로젝트/회의록/SynchroBots - 1차 프로젝트 회의 보고서 - 최종.xlsx
+++ b/1차 프로젝트/회의록/SynchroBots - 1차 프로젝트 회의 보고서 - 최종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2881y\OneDrive\바탕 화면\SynchroBots Project\프로젝트 문서함\1차 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81DA1AB-9F9E-4792-8E4F-30781E9C0625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48569466-6B2B-4298-8E0A-E6085C91B42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2020" windowWidth="19200" windowHeight="11170" activeTab="3" xr2:uid="{48C37B09-A643-4789-8FFD-8A0E94BFC840}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{48C37B09-A643-4789-8FFD-8A0E94BFC840}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-10-23 목요일" sheetId="1" r:id="rId1"/>
@@ -650,161 +650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>권기승</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 데이터 수집 및 라벨링 진행.
-- YOLO와 ResNet 모델 개발 및 비교.
-- 평가 매트릭스(어큐러시, Auroc 등) 분석.
-- 최종적으로 비전 전반 및 PPT/보고서 작성을 담당함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이원영</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 프로젝트 패키지 구조를 기반으로 PPT 제작.
-- 세 개 시스템 연결 통신 시도 (Publisher/Subscriber 관련).
-- AGV에 필요한 모델링 작업 수행 (기어 비율 등)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이준엽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 초기 mapping이 잘 안 되어 맵 수정 작업 수행.
-- Navigation(로컬 맵 및 글로벌 맵)을 담당함.
-- 맵핑이 제대로 된 이후 파라미터 변경을 통한 최적화를 시도했으나, 네트워크 문제로 인해 큰 의미를 얻지 못함.
-- 오도메트리 실측값을 이용한 스케일링을 통해 AGV 자체 보정 성공 (이건 팀원과 협업).
-- 동적 장애물 회피를 위한 패키지(TEB 로컬 플래너) 설치 및 적용 시도 (시간 부족 및 경로 문제로 실 적용은 미흡)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>김윤섭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- AGV 이동 및 지도 매핑 작업 진행 (통신 문제 해결 후).
-- 조이스틱 핸들러 및 맵 그리기 작업 수행.
-- 권기승의 비전 학습을 위한 레이블 작업 지원.
-- PC와 AGV 통신을 통한 물체 판단 기능 구현.
-- 프로젝트 메인 패키지 통합 적용 및 깃(Git) 세팅 (늦게 세팅되어 효율화 시도).
-- 배치 파일 및 패키지 구조 변경을 통한 세팅 용이화 작업 진행. 통합 테스트 참여 및 주간 회의 주최/업무 배분 협의 진행.
-- 이원영 팀원 모델링 검토 및 하드웨어 교체 시도 후 복구 (실패 사례).</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이 건</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- PC 기반의 OS 구축 진행.
-- launch 파일 및 python 파일 실행 기능 구현.
-- Odometry 스케일 값 실측 및 수정 (이준엽 팀원과 협업).
-- 여러 목표 지점을 퍼블리시하여 AGV가 이동하고, 특정 지점에서 비전 진행(값만 받아오기)할 수 있도록 조건에 따른 기능 구현.
-- 미션에 필요한 노드 통합 (모든 노드 통합은 시간 부족으로 못함).
-- PC1-PC2 연동 및 AI 값 받아오기, 내비게이션 실행 기능을 시도함.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 프로젝트 최종 회의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1009,6 +854,161 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : AGV 맵 데이터 전송 시 실시간으로 계속 통신하는 것은 성능상 무리가 있으므로, 3~5초 단위로 스냅샷을 찍어 위치와 함께 압축하여 PC로 보내주는 방식이 효율적일 것으로 논의되었음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이준엽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 초기 mapping이 잘 안 되어 맵 수정 작업 수행
+- Navigation(로컬 맵 및 글로벌 맵)을 담당함
+- 맵핑이 제대로 된 이후 파라미터 변경을 통한 최적화를 시도했으나, 네트워크 문제로 인해 큰 의미를 얻지 못함
+- 오도메트리 실측값을 이용한 스케일링을 통해 AGV 자체 보정 성공 (이건 팀원과 협업)
+- 동적 장애물 회피를 위한 패키지(TEB 로컬 플래너) 설치 및 적용 시도 (시간 부족 및 경로 문제로 실 적용은 미흡)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김윤섭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- AGV 이동 및 지도 매핑 작업 진행 (통신 문제 해결 후)
+- 조이스틱 핸들러 및 맵 그리기 작업 수행
+- 권기승의 비전 학습을 위한 레이블 작업 지원
+- PC와 AGV 통신을 통한 물체 판단 기능 구현
+- 프로젝트 메인 패키지 통합 적용 및 깃(Git) 세팅 (늦게 세팅되어 효율화 시도)
+- 배치 파일 및 패키지 구조 변경을 통한 세팅 용이화 작업 진행. 통합 테스트 참여 및 주간 회의 주최/업무 배분 협의 진행
+- 이원영 팀원 모델링 검토 및 하드웨어 교체 시도 후 복구 (실패 사례)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- PC 기반의 OS 구축 진행
+- launch 파일 및 python 파일 실행 기능 구현
+- Odometry 스케일 값 실측 및 수정 (이준엽 팀원과 협업)
+- 여러 목표 지점을 퍼블리시하여 AGV가 이동하고, 특정 지점에서 비전 진행(값만 받아오기)할 수 있도록 조건에 따른 기능 구현
+- 미션에 필요한 노드 통합 (모든 노드 통합은 시간 부족으로 못함)
+- PC1-PC2 연동 및 AI 값 받아오기, 내비게이션 실행 기능을 시도함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이원영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 프로젝트 패키지 구조를 기반으로 PPT 제작
+- 세 개 시스템 연결 통신 시도 (Publisher/Subscriber 관련).
+- AGV에 필요한 모델링 작업 수행 (기어 비율 등)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>권기승</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 데이터 수집 및 라벨링 진행
+- YOLO와 ResNet 모델 개발 및 비교
+- 평가 매트릭스(어큐러시, Auroc 등) 분석
+- 최종적으로 비전 전반 및 PPT/보고서 작성을 담당함</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1216,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1376,6 +1376,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1402,15 +1405,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3489,7 +3483,7 @@
   <dimension ref="B2:AF70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AI71" sqref="AI71"/>
+      <selection activeCell="D21" sqref="D21:R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3530,7 +3524,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3598,28 +3592,28 @@
         <v>23</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
+      <c r="D9" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
       <c r="T9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="V9" s="62" t="s">
+      <c r="V9" s="53" t="s">
         <v>28</v>
       </c>
       <c r="W9" s="25"/>
@@ -3636,21 +3630,21 @@
     <row r="10" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
       <c r="T10" s="7"/>
       <c r="U10" s="8"/>
       <c r="V10" s="27"/>
@@ -3668,21 +3662,21 @@
     <row r="11" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="58"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
       <c r="T11" s="7"/>
       <c r="U11" s="8"/>
       <c r="V11" s="27"/>
@@ -3700,21 +3694,21 @@
     <row r="12" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="58"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
       <c r="T12" s="7"/>
       <c r="U12" s="8"/>
       <c r="V12" s="27"/>
@@ -3732,21 +3726,21 @@
     <row r="13" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="59"/>
       <c r="T13" s="7"/>
       <c r="U13" s="8"/>
       <c r="V13" s="27"/>
@@ -3764,21 +3758,21 @@
     <row r="14" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="59"/>
       <c r="T14" s="7"/>
       <c r="U14" s="8"/>
       <c r="V14" s="27"/>
@@ -3796,21 +3790,21 @@
     <row r="15" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="58"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="59"/>
       <c r="T15" s="7"/>
       <c r="U15" s="8"/>
       <c r="V15" s="27"/>
@@ -3828,21 +3822,21 @@
     <row r="16" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="58"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="59"/>
       <c r="T16" s="7"/>
       <c r="U16" s="8"/>
       <c r="V16" s="27"/>
@@ -3860,21 +3854,21 @@
     <row r="17" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="58"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="59"/>
       <c r="T17" s="7"/>
       <c r="U17" s="8"/>
       <c r="V17" s="27"/>
@@ -3892,21 +3886,21 @@
     <row r="18" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="59"/>
       <c r="T18" s="7"/>
       <c r="U18" s="8"/>
       <c r="V18" s="27"/>
@@ -3924,21 +3918,21 @@
     <row r="19" spans="2:32" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="59"/>
       <c r="T19" s="7"/>
       <c r="U19" s="8"/>
       <c r="V19" s="27"/>
@@ -3956,21 +3950,21 @@
     <row r="20" spans="2:32" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="61"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="62"/>
       <c r="T20" s="7"/>
       <c r="U20" s="8"/>
       <c r="V20" s="27"/>
@@ -3988,23 +3982,23 @@
     <row r="21" spans="2:32" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="55"/>
+      <c r="D21" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
       <c r="T21" s="7"/>
       <c r="U21" s="8"/>
       <c r="V21" s="27"/>
@@ -4022,21 +4016,21 @@
     <row r="22" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="59"/>
       <c r="T22" s="7"/>
       <c r="U22" s="8"/>
       <c r="V22" s="27"/>
@@ -4054,21 +4048,21 @@
     <row r="23" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="58"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="59"/>
       <c r="T23" s="7"/>
       <c r="U23" s="8"/>
       <c r="V23" s="27"/>
@@ -4086,21 +4080,21 @@
     <row r="24" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="58"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="59"/>
       <c r="T24" s="7"/>
       <c r="U24" s="8"/>
       <c r="V24" s="27"/>
@@ -4118,21 +4112,21 @@
     <row r="25" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="58"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="59"/>
       <c r="T25" s="7"/>
       <c r="U25" s="8"/>
       <c r="V25" s="27"/>
@@ -4150,21 +4144,21 @@
     <row r="26" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="58"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="59"/>
       <c r="T26" s="7"/>
       <c r="U26" s="8"/>
       <c r="V26" s="27"/>
@@ -4182,21 +4176,21 @@
     <row r="27" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="58"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="59"/>
       <c r="T27" s="7"/>
       <c r="U27" s="8"/>
       <c r="V27" s="27"/>
@@ -4214,21 +4208,21 @@
     <row r="28" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="58"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="59"/>
       <c r="T28" s="7"/>
       <c r="U28" s="8"/>
       <c r="V28" s="27"/>
@@ -4246,21 +4240,21 @@
     <row r="29" spans="2:32" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="58"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="59"/>
       <c r="T29" s="7"/>
       <c r="U29" s="8"/>
       <c r="V29" s="27"/>
@@ -4278,21 +4272,21 @@
     <row r="30" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="58"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="59"/>
       <c r="T30" s="7"/>
       <c r="U30" s="8"/>
       <c r="V30" s="27"/>
@@ -4310,21 +4304,21 @@
     <row r="31" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="58"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="59"/>
       <c r="T31" s="7"/>
       <c r="U31" s="8"/>
       <c r="V31" s="27"/>
@@ -4342,21 +4336,21 @@
     <row r="32" spans="2:32" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="61"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="62"/>
       <c r="T32" s="7"/>
       <c r="U32" s="8"/>
       <c r="V32" s="27"/>
@@ -4374,23 +4368,23 @@
     <row r="33" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="55"/>
+      <c r="D33" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
       <c r="T33" s="7"/>
       <c r="U33" s="8"/>
       <c r="V33" s="27"/>
@@ -4408,21 +4402,21 @@
     <row r="34" spans="2:32" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="58"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="59"/>
       <c r="T34" s="7"/>
       <c r="U34" s="8"/>
       <c r="V34" s="27"/>
@@ -4440,21 +4434,21 @@
     <row r="35" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="58"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="59"/>
       <c r="T35" s="7"/>
       <c r="U35" s="8"/>
       <c r="V35" s="27"/>
@@ -4472,21 +4466,21 @@
     <row r="36" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="58"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="59"/>
       <c r="T36" s="7"/>
       <c r="U36" s="8"/>
       <c r="V36" s="27"/>
@@ -4504,21 +4498,21 @@
     <row r="37" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="58"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="59"/>
       <c r="T37" s="9"/>
       <c r="U37" s="10"/>
       <c r="V37" s="30"/>
@@ -4536,643 +4530,643 @@
     <row r="38" spans="2:32" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="58"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="59"/>
       <c r="T38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="U38" s="6"/>
-      <c r="V38" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="55"/>
+      <c r="V38" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="55"/>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="56"/>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="58"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="59"/>
       <c r="T39" s="7"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63"/>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="63"/>
-      <c r="AB39" s="63"/>
-      <c r="AC39" s="63"/>
-      <c r="AD39" s="63"/>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="58"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="59"/>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="58"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="59"/>
       <c r="T40" s="7"/>
       <c r="U40" s="8"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="63"/>
-      <c r="AA40" s="63"/>
-      <c r="AB40" s="63"/>
-      <c r="AC40" s="63"/>
-      <c r="AD40" s="63"/>
-      <c r="AE40" s="63"/>
-      <c r="AF40" s="58"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="58"/>
+      <c r="Z40" s="58"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="58"/>
+      <c r="AC40" s="58"/>
+      <c r="AD40" s="58"/>
+      <c r="AE40" s="58"/>
+      <c r="AF40" s="59"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="58"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="59"/>
       <c r="T41" s="7"/>
       <c r="U41" s="8"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="63"/>
-      <c r="AA41" s="63"/>
-      <c r="AB41" s="63"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="58"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+      <c r="AF41" s="59"/>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="58"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="59"/>
       <c r="T42" s="7"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="63"/>
-      <c r="X42" s="63"/>
-      <c r="Y42" s="63"/>
-      <c r="Z42" s="63"/>
-      <c r="AA42" s="63"/>
-      <c r="AB42" s="63"/>
-      <c r="AC42" s="63"/>
-      <c r="AD42" s="63"/>
-      <c r="AE42" s="63"/>
-      <c r="AF42" s="58"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="58"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="58"/>
+      <c r="AB42" s="58"/>
+      <c r="AC42" s="58"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="59"/>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="58"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="59"/>
       <c r="T43" s="7"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="63"/>
-      <c r="X43" s="63"/>
-      <c r="Y43" s="63"/>
-      <c r="Z43" s="63"/>
-      <c r="AA43" s="63"/>
-      <c r="AB43" s="63"/>
-      <c r="AC43" s="63"/>
-      <c r="AD43" s="63"/>
-      <c r="AE43" s="63"/>
-      <c r="AF43" s="58"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="59"/>
     </row>
     <row r="44" spans="2:32" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="61"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="62"/>
       <c r="T44" s="7"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="63"/>
-      <c r="Y44" s="63"/>
-      <c r="Z44" s="63"/>
-      <c r="AA44" s="63"/>
-      <c r="AB44" s="63"/>
-      <c r="AC44" s="63"/>
-      <c r="AD44" s="63"/>
-      <c r="AE44" s="63"/>
-      <c r="AF44" s="58"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="58"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="59"/>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="55"/>
+      <c r="D45" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="56"/>
       <c r="T45" s="7"/>
       <c r="U45" s="8"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="63"/>
-      <c r="Y45" s="63"/>
-      <c r="Z45" s="63"/>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="63"/>
-      <c r="AC45" s="63"/>
-      <c r="AD45" s="63"/>
-      <c r="AE45" s="63"/>
-      <c r="AF45" s="58"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="59"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="58"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="59"/>
       <c r="T46" s="7"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="63"/>
-      <c r="Y46" s="63"/>
-      <c r="Z46" s="63"/>
-      <c r="AA46" s="63"/>
-      <c r="AB46" s="63"/>
-      <c r="AC46" s="63"/>
-      <c r="AD46" s="63"/>
-      <c r="AE46" s="63"/>
-      <c r="AF46" s="58"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="58"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="58"/>
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="59"/>
     </row>
     <row r="47" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="58"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="59"/>
       <c r="T47" s="7"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="63"/>
-      <c r="X47" s="63"/>
-      <c r="Y47" s="63"/>
-      <c r="Z47" s="63"/>
-      <c r="AA47" s="63"/>
-      <c r="AB47" s="63"/>
-      <c r="AC47" s="63"/>
-      <c r="AD47" s="63"/>
-      <c r="AE47" s="63"/>
-      <c r="AF47" s="58"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="59"/>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="58"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="59"/>
       <c r="T48" s="7"/>
       <c r="U48" s="8"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="63"/>
-      <c r="X48" s="63"/>
-      <c r="Y48" s="63"/>
-      <c r="Z48" s="63"/>
-      <c r="AA48" s="63"/>
-      <c r="AB48" s="63"/>
-      <c r="AC48" s="63"/>
-      <c r="AD48" s="63"/>
-      <c r="AE48" s="63"/>
-      <c r="AF48" s="58"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+      <c r="AF48" s="59"/>
     </row>
     <row r="49" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="58"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="59"/>
       <c r="T49" s="7"/>
       <c r="U49" s="8"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="63"/>
-      <c r="Y49" s="63"/>
-      <c r="Z49" s="63"/>
-      <c r="AA49" s="63"/>
-      <c r="AB49" s="63"/>
-      <c r="AC49" s="63"/>
-      <c r="AD49" s="63"/>
-      <c r="AE49" s="63"/>
-      <c r="AF49" s="58"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="58"/>
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="58"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="59"/>
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="58"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="59"/>
       <c r="T50" s="7"/>
       <c r="U50" s="8"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="63"/>
-      <c r="Y50" s="63"/>
-      <c r="Z50" s="63"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="63"/>
-      <c r="AE50" s="63"/>
-      <c r="AF50" s="58"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="58"/>
+      <c r="X50" s="58"/>
+      <c r="Y50" s="58"/>
+      <c r="Z50" s="58"/>
+      <c r="AA50" s="58"/>
+      <c r="AB50" s="58"/>
+      <c r="AC50" s="58"/>
+      <c r="AD50" s="58"/>
+      <c r="AE50" s="58"/>
+      <c r="AF50" s="59"/>
     </row>
     <row r="51" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="58"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="59"/>
       <c r="T51" s="7"/>
       <c r="U51" s="8"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="63"/>
-      <c r="X51" s="63"/>
-      <c r="Y51" s="63"/>
-      <c r="Z51" s="63"/>
-      <c r="AA51" s="63"/>
-      <c r="AB51" s="63"/>
-      <c r="AC51" s="63"/>
-      <c r="AD51" s="63"/>
-      <c r="AE51" s="63"/>
-      <c r="AF51" s="58"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="58"/>
+      <c r="Y51" s="58"/>
+      <c r="Z51" s="58"/>
+      <c r="AA51" s="58"/>
+      <c r="AB51" s="58"/>
+      <c r="AC51" s="58"/>
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="58"/>
+      <c r="AF51" s="59"/>
     </row>
     <row r="52" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="58"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="59"/>
       <c r="T52" s="7"/>
       <c r="U52" s="8"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="63"/>
-      <c r="X52" s="63"/>
-      <c r="Y52" s="63"/>
-      <c r="Z52" s="63"/>
-      <c r="AA52" s="63"/>
-      <c r="AB52" s="63"/>
-      <c r="AC52" s="63"/>
-      <c r="AD52" s="63"/>
-      <c r="AE52" s="63"/>
-      <c r="AF52" s="58"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="58"/>
+      <c r="AA52" s="58"/>
+      <c r="AB52" s="58"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="58"/>
+      <c r="AF52" s="59"/>
     </row>
     <row r="53" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="58"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="59"/>
       <c r="T53" s="7"/>
       <c r="U53" s="8"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="63"/>
-      <c r="X53" s="63"/>
-      <c r="Y53" s="63"/>
-      <c r="Z53" s="63"/>
-      <c r="AA53" s="63"/>
-      <c r="AB53" s="63"/>
-      <c r="AC53" s="63"/>
-      <c r="AD53" s="63"/>
-      <c r="AE53" s="63"/>
-      <c r="AF53" s="58"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="58"/>
+      <c r="X53" s="58"/>
+      <c r="Y53" s="58"/>
+      <c r="Z53" s="58"/>
+      <c r="AA53" s="58"/>
+      <c r="AB53" s="58"/>
+      <c r="AC53" s="58"/>
+      <c r="AD53" s="58"/>
+      <c r="AE53" s="58"/>
+      <c r="AF53" s="59"/>
     </row>
     <row r="54" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="58"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
+      <c r="R54" s="59"/>
       <c r="T54" s="7"/>
       <c r="U54" s="8"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="63"/>
-      <c r="X54" s="63"/>
-      <c r="Y54" s="63"/>
-      <c r="Z54" s="63"/>
-      <c r="AA54" s="63"/>
-      <c r="AB54" s="63"/>
-      <c r="AC54" s="63"/>
-      <c r="AD54" s="63"/>
-      <c r="AE54" s="63"/>
-      <c r="AF54" s="58"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="58"/>
+      <c r="X54" s="58"/>
+      <c r="Y54" s="58"/>
+      <c r="Z54" s="58"/>
+      <c r="AA54" s="58"/>
+      <c r="AB54" s="58"/>
+      <c r="AC54" s="58"/>
+      <c r="AD54" s="58"/>
+      <c r="AE54" s="58"/>
+      <c r="AF54" s="59"/>
     </row>
     <row r="55" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="58"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="59"/>
       <c r="T55" s="7"/>
       <c r="U55" s="8"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
-      <c r="AD55" s="63"/>
-      <c r="AE55" s="63"/>
-      <c r="AF55" s="58"/>
+      <c r="V55" s="57"/>
+      <c r="W55" s="58"/>
+      <c r="X55" s="58"/>
+      <c r="Y55" s="58"/>
+      <c r="Z55" s="58"/>
+      <c r="AA55" s="58"/>
+      <c r="AB55" s="58"/>
+      <c r="AC55" s="58"/>
+      <c r="AD55" s="58"/>
+      <c r="AE55" s="58"/>
+      <c r="AF55" s="59"/>
     </row>
     <row r="56" spans="2:32" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="61"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="62"/>
       <c r="T56" s="9"/>
       <c r="U56" s="10"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="60"/>
-      <c r="X56" s="60"/>
-      <c r="Y56" s="60"/>
-      <c r="Z56" s="60"/>
-      <c r="AA56" s="60"/>
-      <c r="AB56" s="60"/>
-      <c r="AC56" s="60"/>
-      <c r="AD56" s="60"/>
-      <c r="AE56" s="60"/>
-      <c r="AF56" s="61"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="62"/>
     </row>
     <row r="57" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="55"/>
+      <c r="D57" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="56"/>
       <c r="T57" s="5" t="s">
         <v>11</v>
       </c>
       <c r="U57" s="6"/>
-      <c r="V57" s="53" t="s">
-        <v>35</v>
+      <c r="V57" s="54" t="s">
+        <v>30</v>
       </c>
       <c r="W57" s="25"/>
       <c r="X57" s="25"/>
@@ -5188,341 +5182,341 @@
     <row r="58" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="58"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="59"/>
       <c r="T58" s="7"/>
       <c r="U58" s="8"/>
       <c r="V58" s="27"/>
-      <c r="W58" s="64"/>
-      <c r="X58" s="64"/>
-      <c r="Y58" s="64"/>
-      <c r="Z58" s="64"/>
-      <c r="AA58" s="64"/>
-      <c r="AB58" s="64"/>
-      <c r="AC58" s="64"/>
-      <c r="AD58" s="64"/>
-      <c r="AE58" s="64"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
+      <c r="AD58" s="28"/>
+      <c r="AE58" s="28"/>
       <c r="AF58" s="29"/>
     </row>
     <row r="59" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="58"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="59"/>
       <c r="T59" s="7"/>
       <c r="U59" s="8"/>
       <c r="V59" s="27"/>
-      <c r="W59" s="64"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="64"/>
-      <c r="Z59" s="64"/>
-      <c r="AA59" s="64"/>
-      <c r="AB59" s="64"/>
-      <c r="AC59" s="64"/>
-      <c r="AD59" s="64"/>
-      <c r="AE59" s="64"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="28"/>
       <c r="AF59" s="29"/>
     </row>
     <row r="60" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="58"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="58"/>
+      <c r="Q60" s="58"/>
+      <c r="R60" s="59"/>
       <c r="T60" s="7"/>
       <c r="U60" s="8"/>
       <c r="V60" s="27"/>
-      <c r="W60" s="64"/>
-      <c r="X60" s="64"/>
-      <c r="Y60" s="64"/>
-      <c r="Z60" s="64"/>
-      <c r="AA60" s="64"/>
-      <c r="AB60" s="64"/>
-      <c r="AC60" s="64"/>
-      <c r="AD60" s="64"/>
-      <c r="AE60" s="64"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
       <c r="AF60" s="29"/>
     </row>
     <row r="61" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="58"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="58"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="58"/>
+      <c r="R61" s="59"/>
       <c r="T61" s="7"/>
       <c r="U61" s="8"/>
       <c r="V61" s="27"/>
-      <c r="W61" s="64"/>
-      <c r="X61" s="64"/>
-      <c r="Y61" s="64"/>
-      <c r="Z61" s="64"/>
-      <c r="AA61" s="64"/>
-      <c r="AB61" s="64"/>
-      <c r="AC61" s="64"/>
-      <c r="AD61" s="64"/>
-      <c r="AE61" s="64"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="28"/>
+      <c r="AC61" s="28"/>
+      <c r="AD61" s="28"/>
+      <c r="AE61" s="28"/>
       <c r="AF61" s="29"/>
     </row>
     <row r="62" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="58"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="58"/>
+      <c r="P62" s="58"/>
+      <c r="Q62" s="58"/>
+      <c r="R62" s="59"/>
       <c r="T62" s="7"/>
       <c r="U62" s="8"/>
       <c r="V62" s="27"/>
-      <c r="W62" s="64"/>
-      <c r="X62" s="64"/>
-      <c r="Y62" s="64"/>
-      <c r="Z62" s="64"/>
-      <c r="AA62" s="64"/>
-      <c r="AB62" s="64"/>
-      <c r="AC62" s="64"/>
-      <c r="AD62" s="64"/>
-      <c r="AE62" s="64"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="28"/>
+      <c r="AD62" s="28"/>
+      <c r="AE62" s="28"/>
       <c r="AF62" s="29"/>
     </row>
     <row r="63" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="58"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="58"/>
+      <c r="P63" s="58"/>
+      <c r="Q63" s="58"/>
+      <c r="R63" s="59"/>
       <c r="T63" s="7"/>
       <c r="U63" s="8"/>
       <c r="V63" s="27"/>
-      <c r="W63" s="64"/>
-      <c r="X63" s="64"/>
-      <c r="Y63" s="64"/>
-      <c r="Z63" s="64"/>
-      <c r="AA63" s="64"/>
-      <c r="AB63" s="64"/>
-      <c r="AC63" s="64"/>
-      <c r="AD63" s="64"/>
-      <c r="AE63" s="64"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
+      <c r="AD63" s="28"/>
+      <c r="AE63" s="28"/>
       <c r="AF63" s="29"/>
     </row>
     <row r="64" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="58"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="58"/>
+      <c r="N64" s="58"/>
+      <c r="O64" s="58"/>
+      <c r="P64" s="58"/>
+      <c r="Q64" s="58"/>
+      <c r="R64" s="59"/>
       <c r="T64" s="7"/>
       <c r="U64" s="8"/>
       <c r="V64" s="27"/>
-      <c r="W64" s="64"/>
-      <c r="X64" s="64"/>
-      <c r="Y64" s="64"/>
-      <c r="Z64" s="64"/>
-      <c r="AA64" s="64"/>
-      <c r="AB64" s="64"/>
-      <c r="AC64" s="64"/>
-      <c r="AD64" s="64"/>
-      <c r="AE64" s="64"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="28"/>
+      <c r="AC64" s="28"/>
+      <c r="AD64" s="28"/>
+      <c r="AE64" s="28"/>
       <c r="AF64" s="29"/>
     </row>
     <row r="65" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="58"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="58"/>
+      <c r="R65" s="59"/>
       <c r="T65" s="7"/>
       <c r="U65" s="8"/>
       <c r="V65" s="27"/>
-      <c r="W65" s="64"/>
-      <c r="X65" s="64"/>
-      <c r="Y65" s="64"/>
-      <c r="Z65" s="64"/>
-      <c r="AA65" s="64"/>
-      <c r="AB65" s="64"/>
-      <c r="AC65" s="64"/>
-      <c r="AD65" s="64"/>
-      <c r="AE65" s="64"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="28"/>
+      <c r="AD65" s="28"/>
+      <c r="AE65" s="28"/>
       <c r="AF65" s="29"/>
     </row>
     <row r="66" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="58"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="58"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="58"/>
+      <c r="P66" s="58"/>
+      <c r="Q66" s="58"/>
+      <c r="R66" s="59"/>
       <c r="T66" s="7"/>
       <c r="U66" s="8"/>
       <c r="V66" s="27"/>
-      <c r="W66" s="64"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="64"/>
-      <c r="Z66" s="64"/>
-      <c r="AA66" s="64"/>
-      <c r="AB66" s="64"/>
-      <c r="AC66" s="64"/>
-      <c r="AD66" s="64"/>
-      <c r="AE66" s="64"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
+      <c r="AD66" s="28"/>
+      <c r="AE66" s="28"/>
       <c r="AF66" s="29"/>
     </row>
     <row r="67" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="57"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="57"/>
-      <c r="R67" s="58"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="58"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="59"/>
       <c r="T67" s="7"/>
       <c r="U67" s="8"/>
       <c r="V67" s="27"/>
-      <c r="W67" s="64"/>
-      <c r="X67" s="64"/>
-      <c r="Y67" s="64"/>
-      <c r="Z67" s="64"/>
-      <c r="AA67" s="64"/>
-      <c r="AB67" s="64"/>
-      <c r="AC67" s="64"/>
-      <c r="AD67" s="64"/>
-      <c r="AE67" s="64"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
+      <c r="AD67" s="28"/>
+      <c r="AE67" s="28"/>
       <c r="AF67" s="29"/>
     </row>
     <row r="68" spans="2:32" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="9"/>
       <c r="C68" s="10"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="60"/>
-      <c r="P68" s="60"/>
-      <c r="Q68" s="60"/>
-      <c r="R68" s="61"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="62"/>
       <c r="T68" s="9"/>
       <c r="U68" s="10"/>
       <c r="V68" s="30"/>
